--- a/biology/Médecine/1666_en_santé_et_médecine/1666_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1666_en_santé_et_médecine/1666_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1666_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1666 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1666_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Angleterre
-2-6 septembre : grand incendie de Londres qui détruit la ville à 80 % mais met fin à l'épidémie de peste qui avait commencé l'année précédente[1].
-France
-1666-1669 : épidémie de peste en Alsace du Nord[2]. De  1663 à 1666, la peste a déjà fait 110 000 morts en France[3].
-22 décembre : première séance, ans la bibliothèque du roi, à Paris, de l'Académie des sciences créée par Colbert pour se consacrer au développement des sciences et conseiller le pouvoir en ce domaine. Il choisit dans ce but des savants : mathématiciens, astronomes, physiciens, anatomistes, botanistes, zoologistes et chimistes[4].</t>
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2-6 septembre : grand incendie de Londres qui détruit la ville à 80 % mais met fin à l'épidémie de peste qui avait commencé l'année précédente.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1666_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thomas Sydenham (1624-1689) publie Methodus curandi febres (« Méthode pour traiter les fièvres »)[5].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1666-1669 : épidémie de peste en Alsace du Nord. De  1663 à 1666, la peste a déjà fait 110 000 morts en France.
+22 décembre : première séance, ans la bibliothèque du roi, à Paris, de l'Académie des sciences créée par Colbert pour se consacrer au développement des sciences et conseiller le pouvoir en ce domaine. Il choisit dans ce but des savants : mathématiciens, astronomes, physiciens, anatomistes, botanistes, zoologistes et chimistes.</t>
         </is>
       </c>
     </row>
@@ -557,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1666_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,13 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naissances</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>17 janvier : Antonio Maria Valsalva (mort en 1723), médecin anatomiste italien[6].
-29 avril : Jacques Molin (mort en 1755), médecin français, médecin de Louis XIV et de Louis XV.</t>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thomas Sydenham (1624-1689) publie Methodus curandi febres (« Méthode pour traiter les fièvres »).</t>
         </is>
       </c>
     </row>
@@ -588,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1666_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +625,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17 janvier : Antonio Maria Valsalva (mort en 1723), médecin anatomiste italien.
+29 avril : Jacques Molin (mort en 1755), médecin français, médecin de Louis XIV et de Louis XV.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1666_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1666_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
